--- a/municipal/დემოგრაფია/ქორწინების საშუალო ასაკი/ქობულეთი.xlsx
+++ b/municipal/დემოგრაფია/ქორწინების საშუალო ასაკი/ქობულეთი.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\Tamunas cxrilebi\qarTuli\cx 20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\aba\3) ქორწინება, განქორწინება 2022\ქორწინების საშუალო ასაკი ქარ EN\ქორწინების საშუალო ასაკი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F221B5BE-7895-4646-B718-83FB4EB074D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B92342-6163-4462-8EB8-142DA43EFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="1935" windowWidth="12390" windowHeight="9105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="690" windowWidth="27540" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -40,8 +40,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -104,15 +105,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -214,6 +206,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -232,24 +235,21 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,10 +260,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,67 +547,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="16" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
+    <col min="2" max="18" width="7.7109375" style="14" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10">
         <v>2010</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>2011</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>2012</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>2013</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="11">
         <v>2014</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>2015</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>2016</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="12">
         <v>2017</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="12">
         <v>2018</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="12">
         <v>2019</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="12">
         <v>2020</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="12">
         <v>2021</v>
       </c>
+      <c r="N4" s="12">
+        <v>2022</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -641,49 +653,61 @@
       <c r="L5" s="4">
         <v>31.2</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <v>31.8</v>
       </c>
+      <c r="N5" s="4">
+        <v>33.4</v>
+      </c>
+      <c r="O5" s="15">
+        <v>33.299999999999997</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>25.2</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>25.2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>25.5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>25.5</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>25.8</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>26.3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>27.2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>27.2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>27.1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>27.4</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>27.7</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="7">
         <v>28.8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="O6" s="16">
+        <v>30.1</v>
       </c>
     </row>
   </sheetData>
